--- a/test/result_all.xlsx
+++ b/test/result_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10730"/>
+    <workbookView windowWidth="21030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>scene</t>
   </si>
@@ -73,10 +73,10 @@
     <t>边缘服务器功率</t>
   </si>
   <si>
-    <t>加载后未使用</t>
+    <t>加载后未使用%</t>
   </si>
   <si>
-    <t>重复加载</t>
+    <t>重复加载%</t>
   </si>
   <si>
     <t>FPS</t>
@@ -93,6 +93,18 @@
   <si>
     <t>random</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>重复加载</t>
+  </si>
+  <si>
+    <t>无限制边缘云</t>
+  </si>
+  <si>
+    <t>添加限制后的边缘云</t>
+  </si>
 </sst>
 </file>
 
@@ -104,8 +116,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -593,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,34 +625,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,106 +661,110 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -803,6 +824,932 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>边缘云不重复向同一个用户</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>发送相同的数据包</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.215572232645403"/>
+          <c:y val="0.0216998191681736"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>重复加载</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$X$16:$X$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>无限制边缘云</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>添加限制后的边缘云</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$16:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>92.4145614207543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.9954687057491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="113013428"/>
+        <c:axId val="159617531"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113013428"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159617531"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="159617531"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>用户重复加载数据（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0333333333333333"/>
+              <c:y val="0.266018518518518"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113013428"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16563975" y="2672080"/>
+        <a:ext cx="3384550" cy="3511550"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,18 +2037,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="15.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="16.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="14.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="20.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="15.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="17.7272727272727" customWidth="1"/>
+    <col min="10" max="10" width="10.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="18.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="15.7272727272727" customWidth="1"/>
+    <col min="16" max="16" width="16.9090909090909" customWidth="1"/>
+    <col min="17" max="17" width="14.6363636363636" customWidth="1"/>
+    <col min="18" max="18" width="14.2727272727273" customWidth="1"/>
+    <col min="19" max="19" width="12.9090909090909" customWidth="1"/>
+    <col min="20" max="20" width="14.5454545454545" customWidth="1"/>
+    <col min="21" max="21" width="14.2727272727273" customWidth="1"/>
+    <col min="25" max="25" width="12.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1583,8 +2542,552 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>99.3947267915213</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1748.32849717711</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2766.13653846129</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.509260104716664</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9.69249999894125</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1867.56783191269</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3584.82173076856</v>
+      </c>
+      <c r="L9" s="4">
+        <v>296.319765554108</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1178.30134615292</v>
+      </c>
+      <c r="N9" s="4">
+        <v>29.9615384615385</v>
+      </c>
+      <c r="O9" s="4">
+        <v>779</v>
+      </c>
+      <c r="P9" s="4">
+        <v>29.9615384615385</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>779</v>
+      </c>
+      <c r="R9" s="4">
+        <v>56.9230769230769</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1480</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1.004</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.335989375830013</v>
+      </c>
+      <c r="V9" s="4">
+        <v>57.4144230769231</v>
+      </c>
+      <c r="W9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>96.7053326049469</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5466.5992119005</v>
+      </c>
+      <c r="G12" s="4">
+        <v>17029.3505769228</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.19116280305702</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.53500000028782</v>
+      </c>
+      <c r="J12" s="4">
+        <v>89.685752801666</v>
+      </c>
+      <c r="K12" s="4">
+        <v>417.149423076838</v>
+      </c>
+      <c r="L12" s="4">
+        <v>66.2185870746746</v>
+      </c>
+      <c r="M12" s="4">
+        <v>296.827692307429</v>
+      </c>
+      <c r="N12" s="4">
+        <v>37.3461538461538</v>
+      </c>
+      <c r="O12" s="4">
+        <v>971</v>
+      </c>
+      <c r="P12" s="4">
+        <v>37.3461538461538</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>971</v>
+      </c>
+      <c r="R12" s="4">
+        <v>105.846153846154</v>
+      </c>
+      <c r="S12" s="4">
+        <v>2752</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1.02171512697828</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0.270212194466828</v>
+      </c>
+      <c r="V12" s="4">
+        <v>59.0144230769231</v>
+      </c>
+      <c r="W12" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="25:25">
+      <c r="Y14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25">
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.546017699115044</v>
+      </c>
+      <c r="E15" s="4">
+        <v>96.2143443461102</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6835.73369246892</v>
+      </c>
+      <c r="G15" s="4">
+        <v>31658.7171951212</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.176539682050601</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.708536586793787</v>
+      </c>
+      <c r="J15" s="4">
+        <v>28.7151104088077</v>
+      </c>
+      <c r="K15" s="4">
+        <v>185.290731706742</v>
+      </c>
+      <c r="L15" s="4">
+        <v>29.0094125296545</v>
+      </c>
+      <c r="M15" s="4">
+        <v>108.416463413929</v>
+      </c>
+      <c r="N15" s="4">
+        <v>30.1219512195122</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1235</v>
+      </c>
+      <c r="P15" s="4">
+        <v>30.1219512195122</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1235</v>
+      </c>
+      <c r="R15" s="4">
+        <v>56</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2296</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.359954687057491</v>
+      </c>
+      <c r="V15" s="4">
+        <v>59.1959349593496</v>
+      </c>
+      <c r="W15" s="4">
+        <v>41</v>
+      </c>
+      <c r="X15"/>
+      <c r="Y15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25">
+      <c r="C16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>92.4145614207543</v>
+      </c>
+    </row>
+    <row r="17" spans="24:25">
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>35.9954687057491</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23">
+      <c r="C18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.580993520518359</v>
+      </c>
+      <c r="E18" s="4">
+        <v>97.1216856821885</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3840.74901668658</v>
+      </c>
+      <c r="G18" s="4">
+        <v>20727.9082926824</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.359337257558997</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3.45463414646532</v>
+      </c>
+      <c r="J18" s="4">
+        <v>249.012295365825</v>
+      </c>
+      <c r="K18" s="4">
+        <v>937.007560974788</v>
+      </c>
+      <c r="L18" s="4">
+        <v>147.083232432259</v>
+      </c>
+      <c r="M18" s="4">
+        <v>546.90670731655</v>
+      </c>
+      <c r="N18" s="4">
+        <v>32.8048780487805</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1345</v>
+      </c>
+      <c r="P18" s="4">
+        <v>32.8048780487805</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1345</v>
+      </c>
+      <c r="R18" s="4">
+        <v>711.560975609756</v>
+      </c>
+      <c r="S18" s="4">
+        <v>29174</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.924145614207543</v>
+      </c>
+      <c r="V18" s="4">
+        <v>56.9252032520325</v>
+      </c>
+      <c r="W18" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/result_all.xlsx
+++ b/test/result_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="10730"/>
+    <workbookView windowWidth="24930" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -613,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,146 +610,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -824,932 +808,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>边缘云不重复向同一个用户</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>发送相同的数据包</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.215572232645403"/>
-          <c:y val="0.0216998191681736"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Y$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>重复加载</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$X$16:$X$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>无限制边缘云</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>添加限制后的边缘云</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Y$16:$Y$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>92.4145614207543</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.9954687057491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="113013428"/>
-        <c:axId val="159617531"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="113013428"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="159617531"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="159617531"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>用户重复加载数据（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>%</a:t>
-                </a:r>
-                <a:r>
-                  <a:t>）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0333333333333333"/>
-              <c:y val="0.266018518518518"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113013428"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="16563975" y="2672080"/>
-        <a:ext cx="3384550" cy="3511550"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2039,7 +1097,7 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="M7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -2543,262 +1601,262 @@
       </c>
     </row>
     <row r="9" spans="3:23">
-      <c r="C9" s="4" t="b">
+      <c r="C9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>99.3947267915213</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1748.32849717711</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2766.13653846129</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.509260104716664</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>9.69249999894125</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>1867.56783191269</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>3584.82173076856</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>296.319765554108</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>1178.30134615292</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>29.9615384615385</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>779</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>29.9615384615385</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>779</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>56.9230769230769</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>1480</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>1.004</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.335989375830013</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>57.4144230769231</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="3:23">
-      <c r="C10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="C10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:23">
-      <c r="C12" s="4" t="b">
+      <c r="C12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>96.7053326049469</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>5466.5992119005</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>17029.3505769228</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.19116280305702</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>1.53500000028782</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>89.685752801666</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>417.149423076838</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>66.2185870746746</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>296.827692307429</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>37.3461538461538</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>971</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>37.3461538461538</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>971</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>105.846153846154</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>2752</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>1.02171512697828</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>0.270212194466828</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>59.0144230769231</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:23">
-      <c r="C13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
+      <c r="C13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2808,142 +1866,141 @@
       </c>
     </row>
     <row r="15" spans="3:25">
-      <c r="C15" s="4" t="b">
+      <c r="C15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.546017699115044</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>96.2143443461102</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>6835.73369246892</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>31658.7171951212</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.176539682050601</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.708536586793787</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>28.7151104088077</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>185.290731706742</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>29.0094125296545</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>108.416463413929</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>30.1219512195122</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>1235</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>30.1219512195122</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>1235</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>56</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>2296</v>
       </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>0.359954687057491</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>59.1959349593496</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>41</v>
       </c>
-      <c r="X15"/>
       <c r="Y15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:25">
-      <c r="C16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
+      <c r="C16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
         <v>1</v>
       </c>
       <c r="X16" t="s">
         <v>28</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>92.4145614207543</v>
       </c>
     </row>
@@ -2951,143 +2008,142 @@
       <c r="X17" t="s">
         <v>29</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>35.9954687057491</v>
       </c>
     </row>
     <row r="18" spans="3:23">
-      <c r="C18" s="4" t="b">
+      <c r="C18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.580993520518359</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>97.1216856821885</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>3840.74901668658</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>20727.9082926824</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.359337257558997</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>3.45463414646532</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>249.012295365825</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>937.007560974788</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>147.083232432259</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>546.90670731655</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>32.8048780487805</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>1345</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>32.8048780487805</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>1345</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>711.560975609756</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>29174</v>
       </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>0.924145614207543</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>56.9252032520325</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:23">
-      <c r="C19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4">
-        <v>0</v>
-      </c>
-      <c r="W19" s="4">
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>